--- a/sheet_cell_inverter/invertedSheet.xlsx
+++ b/sheet_cell_inverter/invertedSheet.xlsx
@@ -1628,505 +1628,380 @@
       <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4">
-        <f>ROUND(B2*C2,2)</f>
-        <v/>
-      </c>
-      <c r="C4">
-        <f>ROUND(B3*C3,2)</f>
-        <v/>
-      </c>
-      <c r="D4">
-        <f>ROUND(B4*C4,2)</f>
-        <v/>
-      </c>
-      <c r="E4">
-        <f>ROUND(B5*C5,2)</f>
-        <v/>
-      </c>
-      <c r="F4">
-        <f>ROUND(B6*C6,2)</f>
-        <v/>
-      </c>
-      <c r="G4">
-        <f>ROUND(B7*C7,2)</f>
-        <v/>
-      </c>
-      <c r="H4">
-        <f>ROUND(B8*C8,2)</f>
-        <v/>
-      </c>
-      <c r="I4">
-        <f>ROUND(B9*C9,2)</f>
-        <v/>
-      </c>
-      <c r="J4">
-        <f>ROUND(B10*C10,2)</f>
-        <v/>
-      </c>
-      <c r="K4">
-        <f>ROUND(B11*C11,2)</f>
-        <v/>
-      </c>
-      <c r="L4">
-        <f>ROUND(B12*C12,2)</f>
-        <v/>
-      </c>
-      <c r="M4">
-        <f>ROUND(B13*C13,2)</f>
-        <v/>
-      </c>
-      <c r="N4">
-        <f>ROUND(B14*C14,2)</f>
-        <v/>
-      </c>
-      <c r="O4">
-        <f>ROUND(B15*C15,2)</f>
-        <v/>
-      </c>
-      <c r="P4">
-        <f>ROUND(B16*C16,2)</f>
-        <v/>
-      </c>
-      <c r="Q4">
-        <f>ROUND(B17*C17,2)</f>
-        <v/>
-      </c>
-      <c r="R4">
-        <f>ROUND(B18*C18,2)</f>
-        <v/>
-      </c>
-      <c r="S4">
-        <f>ROUND(B19*C19,2)</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>ROUND(B20*C20,2)</f>
-        <v/>
-      </c>
-      <c r="U4">
-        <f>ROUND(B21*C21,2)</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>ROUND(B22*C22,2)</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>ROUND(B23*C23,2)</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>ROUND(B24*C24,2)</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>ROUND(B25*C25,2)</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>ROUND(B26*C26,2)</f>
-        <v/>
-      </c>
-      <c r="AA4">
-        <f>ROUND(B27*C27,2)</f>
-        <v/>
-      </c>
-      <c r="AB4">
-        <f>ROUND(B28*C28,2)</f>
-        <v/>
-      </c>
-      <c r="AC4">
-        <f>ROUND(B29*C29,2)</f>
-        <v/>
-      </c>
-      <c r="AD4">
-        <f>ROUND(B30*C30,2)</f>
-        <v/>
-      </c>
-      <c r="AE4">
-        <f>ROUND(B31*C31,2)</f>
-        <v/>
-      </c>
-      <c r="AF4">
-        <f>ROUND(B32*C32,2)</f>
-        <v/>
-      </c>
-      <c r="AG4">
-        <f>ROUND(B33*C33,2)</f>
-        <v/>
-      </c>
-      <c r="AH4">
-        <f>ROUND(B34*C34,2)</f>
-        <v/>
-      </c>
-      <c r="AI4">
-        <f>ROUND(B35*C35,2)</f>
-        <v/>
-      </c>
-      <c r="AJ4">
-        <f>ROUND(B36*C36,2)</f>
-        <v/>
-      </c>
-      <c r="AK4">
-        <f>ROUND(B37*C37,2)</f>
-        <v/>
-      </c>
-      <c r="AL4">
-        <f>ROUND(B38*C38,2)</f>
-        <v/>
-      </c>
-      <c r="AM4">
-        <f>ROUND(B39*C39,2)</f>
-        <v/>
-      </c>
-      <c r="AN4">
-        <f>ROUND(B40*C40,2)</f>
-        <v/>
-      </c>
-      <c r="AO4">
-        <f>ROUND(B41*C41,2)</f>
-        <v/>
-      </c>
-      <c r="AP4">
-        <f>ROUND(B42*C42,2)</f>
-        <v/>
-      </c>
-      <c r="AQ4">
-        <f>ROUND(B43*C43,2)</f>
-        <v/>
-      </c>
-      <c r="AR4">
-        <f>ROUND(B44*C44,2)</f>
-        <v/>
-      </c>
-      <c r="AS4">
-        <f>ROUND(B45*C45,2)</f>
-        <v/>
-      </c>
-      <c r="AT4">
-        <f>ROUND(B46*C46,2)</f>
-        <v/>
-      </c>
-      <c r="AU4">
-        <f>ROUND(B47*C47,2)</f>
-        <v/>
-      </c>
-      <c r="AV4">
-        <f>ROUND(B48*C48,2)</f>
-        <v/>
-      </c>
-      <c r="AW4">
-        <f>ROUND(B49*C49,2)</f>
-        <v/>
-      </c>
-      <c r="AX4">
-        <f>ROUND(B50*C50,2)</f>
-        <v/>
-      </c>
-      <c r="AY4">
-        <f>ROUND(B51*C51,2)</f>
-        <v/>
-      </c>
-      <c r="AZ4">
-        <f>ROUND(B52*C52,2)</f>
-        <v/>
-      </c>
-      <c r="BA4">
-        <f>ROUND(B53*C53,2)</f>
-        <v/>
-      </c>
-      <c r="BB4">
-        <f>ROUND(B54*C54,2)</f>
-        <v/>
-      </c>
-      <c r="BC4">
-        <f>ROUND(B55*C55,2)</f>
-        <v/>
-      </c>
-      <c r="BD4">
-        <f>ROUND(B56*C56,2)</f>
-        <v/>
-      </c>
-      <c r="BE4">
-        <f>ROUND(B57*C57,2)</f>
-        <v/>
-      </c>
-      <c r="BF4">
-        <f>ROUND(B58*C58,2)</f>
-        <v/>
-      </c>
-      <c r="BG4">
-        <f>ROUND(B59*C59,2)</f>
-        <v/>
-      </c>
-      <c r="BH4">
-        <f>ROUND(B60*C60,2)</f>
-        <v/>
-      </c>
-      <c r="BI4">
-        <f>ROUND(B61*C61,2)</f>
-        <v/>
-      </c>
-      <c r="BJ4">
-        <f>ROUND(B62*C62,2)</f>
-        <v/>
-      </c>
-      <c r="BK4">
-        <f>ROUND(B63*C63,2)</f>
-        <v/>
-      </c>
-      <c r="BL4">
-        <f>ROUND(B64*C64,2)</f>
-        <v/>
-      </c>
-      <c r="BM4">
-        <f>ROUND(B65*C65,2)</f>
-        <v/>
-      </c>
-      <c r="BN4">
-        <f>ROUND(B66*C66,2)</f>
-        <v/>
-      </c>
-      <c r="BO4">
-        <f>ROUND(B67*C67,2)</f>
-        <v/>
-      </c>
-      <c r="BP4">
-        <f>ROUND(B68*C68,2)</f>
-        <v/>
-      </c>
-      <c r="BQ4">
-        <f>ROUND(B69*C69,2)</f>
-        <v/>
-      </c>
-      <c r="BR4">
-        <f>ROUND(B70*C70,2)</f>
-        <v/>
-      </c>
-      <c r="BS4">
-        <f>ROUND(B71*C71,2)</f>
-        <v/>
-      </c>
-      <c r="BT4">
-        <f>ROUND(B72*C72,2)</f>
-        <v/>
-      </c>
-      <c r="BU4">
-        <f>ROUND(B73*C73,2)</f>
-        <v/>
-      </c>
-      <c r="BV4">
-        <f>ROUND(B74*C74,2)</f>
-        <v/>
-      </c>
-      <c r="BW4">
-        <f>ROUND(B75*C75,2)</f>
-        <v/>
-      </c>
-      <c r="BX4">
-        <f>ROUND(B76*C76,2)</f>
-        <v/>
-      </c>
-      <c r="BY4">
-        <f>ROUND(B77*C77,2)</f>
-        <v/>
-      </c>
-      <c r="BZ4">
-        <f>ROUND(B78*C78,2)</f>
-        <v/>
-      </c>
-      <c r="CA4">
-        <f>ROUND(B79*C79,2)</f>
-        <v/>
-      </c>
-      <c r="CB4">
-        <f>ROUND(B80*C80,2)</f>
-        <v/>
-      </c>
-      <c r="CC4">
-        <f>ROUND(B81*C81,2)</f>
-        <v/>
-      </c>
-      <c r="CD4">
-        <f>ROUND(B82*C82,2)</f>
-        <v/>
-      </c>
-      <c r="CE4">
-        <f>ROUND(B83*C83,2)</f>
-        <v/>
-      </c>
-      <c r="CF4">
-        <f>ROUND(B84*C84,2)</f>
-        <v/>
-      </c>
-      <c r="CG4">
-        <f>ROUND(B85*C85,2)</f>
-        <v/>
-      </c>
-      <c r="CH4">
-        <f>ROUND(B86*C86,2)</f>
-        <v/>
-      </c>
-      <c r="CI4">
-        <f>ROUND(B87*C87,2)</f>
-        <v/>
-      </c>
-      <c r="CJ4">
-        <f>ROUND(B88*C88,2)</f>
-        <v/>
-      </c>
-      <c r="CK4">
-        <f>ROUND(B89*C89,2)</f>
-        <v/>
-      </c>
-      <c r="CL4">
-        <f>ROUND(B90*C90,2)</f>
-        <v/>
-      </c>
-      <c r="CM4">
-        <f>ROUND(B91*C91,2)</f>
-        <v/>
-      </c>
-      <c r="CN4">
-        <f>ROUND(B92*C92,2)</f>
-        <v/>
-      </c>
-      <c r="CO4">
-        <f>ROUND(B93*C93,2)</f>
-        <v/>
-      </c>
-      <c r="CP4">
-        <f>ROUND(B94*C94,2)</f>
-        <v/>
-      </c>
-      <c r="CQ4">
-        <f>ROUND(B95*C95,2)</f>
-        <v/>
-      </c>
-      <c r="CR4">
-        <f>ROUND(B96*C96,2)</f>
-        <v/>
-      </c>
-      <c r="CS4">
-        <f>ROUND(B97*C97,2)</f>
-        <v/>
-      </c>
-      <c r="CT4">
-        <f>ROUND(B98*C98,2)</f>
-        <v/>
-      </c>
-      <c r="CU4">
-        <f>ROUND(B99*C99,2)</f>
-        <v/>
-      </c>
-      <c r="CV4">
-        <f>ROUND(B100*C100,2)</f>
-        <v/>
-      </c>
-      <c r="CW4">
-        <f>ROUND(B101*C101,2)</f>
-        <v/>
-      </c>
-      <c r="CX4">
-        <f>ROUND(B102*C102,2)</f>
-        <v/>
-      </c>
-      <c r="CY4">
-        <f>ROUND(B103*C103,2)</f>
-        <v/>
-      </c>
-      <c r="CZ4">
-        <f>ROUND(B104*C104,2)</f>
-        <v/>
-      </c>
-      <c r="DA4">
-        <f>ROUND(B105*C105,2)</f>
-        <v/>
-      </c>
-      <c r="DB4">
-        <f>ROUND(B106*C106,2)</f>
-        <v/>
-      </c>
-      <c r="DC4">
-        <f>ROUND(B107*C107,2)</f>
-        <v/>
-      </c>
-      <c r="DD4">
-        <f>ROUND(B108*C108,2)</f>
-        <v/>
-      </c>
-      <c r="DE4">
-        <f>ROUND(B109*C109,2)</f>
-        <v/>
-      </c>
-      <c r="DF4">
-        <f>ROUND(B110*C110,2)</f>
-        <v/>
-      </c>
-      <c r="DG4">
-        <f>ROUND(B111*C111,2)</f>
-        <v/>
-      </c>
-      <c r="DH4">
-        <f>ROUND(B112*C112,2)</f>
-        <v/>
-      </c>
-      <c r="DI4">
-        <f>ROUND(B113*C113,2)</f>
-        <v/>
-      </c>
-      <c r="DJ4">
-        <f>ROUND(B114*C114,2)</f>
-        <v/>
-      </c>
-      <c r="DK4">
-        <f>ROUND(B115*C115,2)</f>
-        <v/>
-      </c>
-      <c r="DL4">
-        <f>ROUND(B116*C116,2)</f>
-        <v/>
-      </c>
-      <c r="DM4">
-        <f>ROUND(B117*C117,2)</f>
-        <v/>
-      </c>
-      <c r="DN4">
-        <f>ROUND(B118*C118,2)</f>
-        <v/>
-      </c>
-      <c r="DO4">
-        <f>ROUND(B119*C119,2)</f>
-        <v/>
-      </c>
-      <c r="DP4">
-        <f>ROUND(B120*C120,2)</f>
-        <v/>
-      </c>
-      <c r="DQ4">
-        <f>ROUND(B121*C121,2)</f>
-        <v/>
-      </c>
-      <c r="DR4">
-        <f>ROUND(B122*C122,2)</f>
-        <v/>
-      </c>
-      <c r="DS4">
-        <f>ROUND(B123*C123,2)</f>
-        <v/>
-      </c>
-      <c r="DT4">
-        <f>ROUND(B124*C124,2)</f>
-        <v/>
-      </c>
-      <c r="DU4">
-        <f>ROUND(B125*C125,2)</f>
-        <v/>
-      </c>
-      <c r="DV4">
-        <f>ROUND(B126*C126,2)</f>
-        <v/>
+      <c r="B4" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87.23999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>88.22999999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>94.37</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="J4" t="n">
+        <v>34.39</v>
+      </c>
+      <c r="K4" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>123.6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="N4" t="n">
+        <v>109.07</v>
+      </c>
+      <c r="O4" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="P4" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="R4" t="n">
+        <v>73.87</v>
+      </c>
+      <c r="S4" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="T4" t="n">
+        <v>27.13</v>
+      </c>
+      <c r="U4" t="n">
+        <v>77.97999999999999</v>
+      </c>
+      <c r="V4" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>76.06</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>117.27</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>45.76000000000001</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>243.2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>78.37</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>66.03999999999999</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>25.97</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>103.36</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>164.16</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>141.68</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>56.49</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>93.56</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>38.02</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>129.11</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>100.45</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>34.94</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>49.64</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>80.92999999999999</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>104.65</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>41.44</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>87.95</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>65.21000000000001</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>52.73999999999999</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>54.01000000000001</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>97.02</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>74.91</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>108.3</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>49.18</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>94.61</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>70.06</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>42.23999999999999</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>37.35</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>113.37</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>95.61</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>46.06</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>93.94</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>117.27</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>7.459999999999999</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>39.53</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>48.84</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>40</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>32.92</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>54.17999999999999</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>45.55</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>42.61</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>30.17</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0.9800000000000001</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>90.48</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>37.42</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>40.55</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>44.95</v>
       </c>
     </row>
     <row r="5" spans="1:126"/>
